--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220514_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220514_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="263">
   <si>
     <t>사이트</t>
   </si>
@@ -718,7 +718,7 @@
     <t>해외</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SHOFAR</t>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>C9</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>레시피뮤직</t>
@@ -1218,7 +1215,7 @@
         <v>223</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1244,7 +1241,7 @@
         <v>224</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1296,7 +1293,7 @@
         <v>226</v>
       </c>
       <c r="H5" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1322,7 +1319,7 @@
         <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1348,7 +1345,7 @@
         <v>228</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1374,7 +1371,7 @@
         <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1426,7 +1423,7 @@
         <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1452,7 +1449,7 @@
         <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1478,7 +1475,7 @@
         <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1556,7 +1553,7 @@
         <v>233</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1582,7 +1579,7 @@
         <v>230</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1608,7 +1605,7 @@
         <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1634,7 +1631,7 @@
         <v>234</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1660,7 +1657,7 @@
         <v>235</v>
       </c>
       <c r="H19" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1686,7 +1683,7 @@
         <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1712,7 +1709,7 @@
         <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1738,7 +1735,7 @@
         <v>227</v>
       </c>
       <c r="H22" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1764,7 +1761,7 @@
         <v>237</v>
       </c>
       <c r="H23" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1790,7 +1787,7 @@
         <v>227</v>
       </c>
       <c r="H24" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1816,7 +1813,7 @@
         <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1842,7 +1839,7 @@
         <v>223</v>
       </c>
       <c r="H26" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1894,7 +1891,7 @@
         <v>239</v>
       </c>
       <c r="H28" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1946,7 +1943,7 @@
         <v>240</v>
       </c>
       <c r="H30" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1972,7 +1969,7 @@
         <v>235</v>
       </c>
       <c r="H31" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2024,7 +2021,7 @@
         <v>241</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2050,7 +2047,7 @@
         <v>226</v>
       </c>
       <c r="H34" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2076,7 +2073,7 @@
         <v>239</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2102,7 +2099,7 @@
         <v>223</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2128,7 +2125,7 @@
         <v>223</v>
       </c>
       <c r="H37" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2180,7 +2177,7 @@
         <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2206,7 +2203,7 @@
         <v>230</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2232,7 +2229,7 @@
         <v>244</v>
       </c>
       <c r="H41" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2258,7 +2255,7 @@
         <v>226</v>
       </c>
       <c r="H42" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2310,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="H44" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2336,7 +2333,7 @@
         <v>233</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2362,7 +2359,7 @@
         <v>245</v>
       </c>
       <c r="H46" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2388,7 +2385,7 @@
         <v>246</v>
       </c>
       <c r="H47" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2414,7 +2411,7 @@
         <v>247</v>
       </c>
       <c r="H48" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2440,7 +2437,7 @@
         <v>248</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2466,7 +2463,7 @@
         <v>249</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2492,7 +2489,7 @@
         <v>247</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2518,7 +2515,7 @@
         <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2544,7 +2541,7 @@
         <v>251</v>
       </c>
       <c r="H53" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2570,7 +2567,7 @@
         <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2622,7 +2619,7 @@
         <v>250</v>
       </c>
       <c r="H56" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2674,7 +2671,7 @@
         <v>223</v>
       </c>
       <c r="H58" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2700,7 +2697,7 @@
         <v>252</v>
       </c>
       <c r="H59" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2726,7 +2723,7 @@
         <v>253</v>
       </c>
       <c r="H60" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2752,7 +2749,7 @@
         <v>234</v>
       </c>
       <c r="H61" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2778,7 +2775,7 @@
         <v>250</v>
       </c>
       <c r="H62" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2804,7 +2801,7 @@
         <v>254</v>
       </c>
       <c r="H63" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2830,7 +2827,7 @@
         <v>255</v>
       </c>
       <c r="H64" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2853,10 +2850,10 @@
         <v>204</v>
       </c>
       <c r="G65" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="H65" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2879,10 +2876,10 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H66" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2908,7 +2905,7 @@
         <v>233</v>
       </c>
       <c r="H67" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2934,7 +2931,7 @@
         <v>223</v>
       </c>
       <c r="H68" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3035,10 +3032,10 @@
         <v>207</v>
       </c>
       <c r="G72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H72" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3064,7 +3061,7 @@
         <v>233</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3087,10 +3084,10 @@
         <v>208</v>
       </c>
       <c r="G74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3116,7 +3113,7 @@
         <v>233</v>
       </c>
       <c r="H75" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3142,7 +3139,7 @@
         <v>247</v>
       </c>
       <c r="H76" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3168,7 +3165,7 @@
         <v>233</v>
       </c>
       <c r="H77" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3194,7 +3191,7 @@
         <v>234</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3243,10 +3240,10 @@
         <v>212</v>
       </c>
       <c r="G80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H80" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3272,7 +3269,7 @@
         <v>234</v>
       </c>
       <c r="H81" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3350,7 +3347,7 @@
         <v>247</v>
       </c>
       <c r="H84" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3376,7 +3373,7 @@
         <v>247</v>
       </c>
       <c r="H85" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3402,7 +3399,7 @@
         <v>233</v>
       </c>
       <c r="H86" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3428,7 +3425,7 @@
         <v>248</v>
       </c>
       <c r="H87" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3454,7 +3451,7 @@
         <v>250</v>
       </c>
       <c r="H88" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3480,7 +3477,7 @@
         <v>233</v>
       </c>
       <c r="H89" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3532,7 +3529,7 @@
         <v>223</v>
       </c>
       <c r="H91" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3558,7 +3555,7 @@
         <v>233</v>
       </c>
       <c r="H92" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3581,10 +3578,10 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H93" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3607,10 +3604,10 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H94" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3636,7 +3633,7 @@
         <v>235</v>
       </c>
       <c r="H95" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3662,7 +3659,7 @@
         <v>241</v>
       </c>
       <c r="H96" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3711,10 +3708,10 @@
         <v>221</v>
       </c>
       <c r="G98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H98" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3792,7 +3789,7 @@
         <v>233</v>
       </c>
       <c r="H101" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
